--- a/proposals/2018/2018.xlsx
+++ b/proposals/2018/2018.xlsx
@@ -4,10 +4,10 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="25306"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="10640" yWindow="6560" windowWidth="25600" windowHeight="15460" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
   </bookViews>
   <sheets>
-    <sheet name="2017_full" sheetId="1" r:id="rId1"/>
+    <sheet name="2018_full" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="111">
   <si>
     <t>name</t>
   </si>
@@ -51,15 +51,6 @@
     <t>comments</t>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
-    <t>PyCon US</t>
-  </si>
-  <si>
-    <t>https://us.pycon.org/2016/speaking/</t>
-  </si>
-  <si>
     <t>DefCon</t>
   </si>
   <si>
@@ -81,21 +72,12 @@
     <t>https://reinvent.awsevents.com/</t>
   </si>
   <si>
-    <t>5/17/17</t>
-  </si>
-  <si>
-    <t>5/25/17</t>
-  </si>
-  <si>
     <t>http://iwann.uma.es/</t>
   </si>
   <si>
     <t>conf_list</t>
   </si>
   <si>
-    <t>01/3/17</t>
-  </si>
-  <si>
     <t>submitted</t>
   </si>
   <si>
@@ -132,9 +114,6 @@
     <t>2018-09-27</t>
   </si>
   <si>
-    <t>No CFP close date</t>
-  </si>
-  <si>
     <t>2018-08-17</t>
   </si>
   <si>
@@ -175,9 +154,6 @@
   </si>
   <si>
     <t>Community</t>
-  </si>
-  <si>
-    <t>National</t>
   </si>
   <si>
     <t>http://www.pybay.com/cfp</t>
@@ -455,7 +431,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="53">
+  <cellStyleXfs count="80">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -467,6 +443,33 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -521,7 +524,7 @@
     </xf>
     <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="10" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="53">
+  <cellStyles count="80">
     <cellStyle name="Check Cell" xfId="10" builtinId="23"/>
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
@@ -569,6 +572,33 @@
     <cellStyle name="Followed Hyperlink" xfId="50" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="51" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="52" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="53" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="54" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="55" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="56" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="57" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="58" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="59" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="60" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="61" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="62" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="63" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="64" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="65" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="66" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="67" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="68" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="69" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="70" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="71" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="72" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="73" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="74" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="75" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="76" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="77" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="78" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="79" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -624,21 +654,24 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A1:L19" totalsRowShown="0" headerRowDxfId="0" headerRowCellStyle="Check Cell">
-  <autoFilter ref="A1:L19"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A1:L18" totalsRowShown="0" headerRowDxfId="11" headerRowCellStyle="Check Cell">
+  <autoFilter ref="A1:L18"/>
+  <sortState ref="A2:L18">
+    <sortCondition ref="E1:E18"/>
+  </sortState>
   <tableColumns count="12">
-    <tableColumn id="1" name="name" dataDxfId="11"/>
-    <tableColumn id="2" name="conf_list" dataDxfId="10"/>
-    <tableColumn id="3" name="start date" dataDxfId="9"/>
-    <tableColumn id="4" name="end date" dataDxfId="8"/>
-    <tableColumn id="5" name="cfp_close" dataDxfId="7"/>
-    <tableColumn id="6" name="location" dataDxfId="6"/>
-    <tableColumn id="7" name="scale" dataDxfId="5"/>
-    <tableColumn id="8" name="type" dataDxfId="4"/>
+    <tableColumn id="1" name="name" dataDxfId="10"/>
+    <tableColumn id="2" name="conf_list" dataDxfId="9"/>
+    <tableColumn id="3" name="start date" dataDxfId="8"/>
+    <tableColumn id="4" name="end date" dataDxfId="7"/>
+    <tableColumn id="5" name="cfp_close" dataDxfId="6"/>
+    <tableColumn id="6" name="location" dataDxfId="5"/>
+    <tableColumn id="7" name="scale" dataDxfId="4"/>
+    <tableColumn id="8" name="type" dataDxfId="3"/>
     <tableColumn id="9" name="submitted"/>
-    <tableColumn id="10" name="website" dataDxfId="3" dataCellStyle="Hyperlink"/>
-    <tableColumn id="11" name="CFP website" dataDxfId="2" dataCellStyle="Hyperlink"/>
-    <tableColumn id="12" name="comments" dataDxfId="1"/>
+    <tableColumn id="10" name="website" dataDxfId="2" dataCellStyle="Hyperlink"/>
+    <tableColumn id="11" name="CFP website" dataDxfId="1" dataCellStyle="Hyperlink"/>
+    <tableColumn id="12" name="comments" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -907,10 +940,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L37"/>
+  <dimension ref="A1:L36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -926,7 +959,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="C1" s="6" t="s">
         <v>1</v>
@@ -947,13 +980,13 @@
         <v>6</v>
       </c>
       <c r="I1" s="6" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="J1" s="6" t="s">
         <v>7</v>
       </c>
       <c r="K1" s="6" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="L1" s="6" t="s">
         <v>8</v>
@@ -961,218 +994,223 @@
     </row>
     <row r="2" spans="1:12" ht="16" thickTop="1">
       <c r="A2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" s="1"/>
+        <v>22</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>24</v>
+      </c>
       <c r="C2" s="1" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="E2" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="J2" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1" t="s">
-        <v>9</v>
-      </c>
+      <c r="K2" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="L2" s="1"/>
     </row>
     <row r="3" spans="1:12">
       <c r="A3" s="1" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>34</v>
+        <v>70</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>35</v>
+        <v>71</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>42</v>
+        <v>68</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>31</v>
-      </c>
+        <v>72</v>
+      </c>
+      <c r="G3" s="1"/>
       <c r="H3" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="J3" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="K3" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>36</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="I3" s="1"/>
+      <c r="J3" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="L3" s="1"/>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" s="1" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>53</v>
+        <v>36</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>50</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="I4" s="1"/>
       <c r="J4" s="4" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="K4" s="4" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="L4" s="1"/>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="1" t="s">
-        <v>26</v>
+        <v>79</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>45</v>
+        <v>82</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>48</v>
-      </c>
+        <v>83</v>
+      </c>
+      <c r="G5" s="1"/>
       <c r="H5" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="I5" s="1"/>
+        <v>84</v>
+      </c>
       <c r="J5" s="4" t="s">
-        <v>27</v>
+        <v>80</v>
       </c>
       <c r="K5" s="4" t="s">
-        <v>52</v>
+        <v>85</v>
       </c>
       <c r="L5" s="1"/>
     </row>
     <row r="6" spans="1:12">
       <c r="A6" s="1" t="s">
-        <v>54</v>
+        <v>9</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>55</v>
+        <v>71</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>56</v>
+        <v>73</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>53</v>
+        <v>75</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>31</v>
-      </c>
+        <v>72</v>
+      </c>
+      <c r="G6" s="1"/>
       <c r="H6" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="I6" s="1"/>
+        <v>43</v>
+      </c>
       <c r="J6" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="K6" s="1" t="s">
-        <v>53</v>
+        <v>10</v>
+      </c>
+      <c r="K6" s="4" t="s">
+        <v>74</v>
       </c>
       <c r="L6" s="1"/>
     </row>
     <row r="7" spans="1:12">
       <c r="A7" s="1" t="s">
-        <v>57</v>
+        <v>87</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>58</v>
+        <v>89</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>53</v>
+        <v>75</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>31</v>
-      </c>
+        <v>88</v>
+      </c>
+      <c r="G7" s="1"/>
       <c r="H7" s="1" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="J7" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="K7" s="1" t="s">
-        <v>53</v>
+        <v>86</v>
+      </c>
+      <c r="K7" s="4" t="s">
+        <v>90</v>
       </c>
       <c r="L7" s="1"/>
     </row>
     <row r="8" spans="1:12">
       <c r="A8" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="F8" s="1"/>
+        <v>99</v>
+      </c>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>110</v>
+      </c>
       <c r="G8" s="1"/>
       <c r="H8" s="1" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="J8" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="K8" s="1"/>
+        <v>102</v>
+      </c>
+      <c r="K8" s="4" t="s">
+        <v>100</v>
+      </c>
       <c r="L8" s="1"/>
     </row>
     <row r="9" spans="1:12">
@@ -1180,367 +1218,341 @@
         <v>65</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>53</v>
+        <v>67</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="G9" s="1"/>
       <c r="H9" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="I9" s="2"/>
-      <c r="J9" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="I9" s="1"/>
+      <c r="J9" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="K9" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="K9" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="L9" s="1" t="s">
-        <v>67</v>
-      </c>
+      <c r="L9" s="1"/>
     </row>
     <row r="10" spans="1:12">
       <c r="A10" s="1" t="s">
-        <v>73</v>
+        <v>19</v>
       </c>
       <c r="B10" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C10" s="1" t="s">
-        <v>68</v>
-      </c>
       <c r="D10" s="1" t="s">
-        <v>69</v>
+        <v>30</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>75</v>
+        <v>45</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="G10" s="1"/>
+        <v>40</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>41</v>
+      </c>
       <c r="H10" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="I10" s="1"/>
-      <c r="J10" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="K10" s="3" t="s">
-        <v>72</v>
+        <v>43</v>
+      </c>
+      <c r="J10" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="K10" s="4" t="s">
+        <v>33</v>
       </c>
       <c r="L10" s="1"/>
     </row>
     <row r="11" spans="1:12">
       <c r="A11" s="1" t="s">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>78</v>
+        <v>47</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>79</v>
+        <v>48</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>76</v>
+        <v>45</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="G11" s="1"/>
+        <v>39</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>25</v>
+      </c>
       <c r="H11" s="1" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="I11" s="1"/>
-      <c r="J11" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="K11" s="3" t="s">
-        <v>77</v>
+      <c r="J11" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>45</v>
       </c>
       <c r="L11" s="1"/>
     </row>
     <row r="12" spans="1:12">
       <c r="A12" s="1" t="s">
-        <v>12</v>
+        <v>49</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>79</v>
+        <v>50</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>83</v>
+        <v>45</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="G12" s="1"/>
+        <v>52</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>25</v>
+      </c>
       <c r="H12" s="1" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="J12" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="K12" s="4" t="s">
-        <v>82</v>
+        <v>16</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>45</v>
       </c>
       <c r="L12" s="1"/>
     </row>
     <row r="13" spans="1:12">
       <c r="A13" s="1" t="s">
-        <v>17</v>
+        <v>57</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>84</v>
+        <v>60</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>85</v>
+        <v>61</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>80</v>
+        <v>62</v>
       </c>
       <c r="G13" s="1"/>
       <c r="H13" s="1" t="s">
-        <v>92</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="I13" s="2"/>
       <c r="J13" s="4" t="s">
-        <v>18</v>
+        <v>56</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>86</v>
+        <v>59</v>
       </c>
     </row>
     <row r="14" spans="1:12">
       <c r="A14" s="1" t="s">
-        <v>87</v>
+        <v>14</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>91</v>
+        <v>72</v>
       </c>
       <c r="G14" s="1"/>
       <c r="H14" s="1" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="J14" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="K14" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="L14" s="1"/>
+        <v>15</v>
+      </c>
+      <c r="K14" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="L14" s="1" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="15" spans="1:12">
       <c r="A15" s="1" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>97</v>
+        <v>45</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>68</v>
+        <v>45</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>83</v>
+        <v>45</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="G15" s="1"/>
       <c r="H15" s="1" t="s">
-        <v>50</v>
+        <v>84</v>
       </c>
       <c r="J15" s="4" t="s">
         <v>94</v>
       </c>
       <c r="K15" s="4" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="L15" s="1"/>
     </row>
     <row r="16" spans="1:12">
       <c r="A16" s="1" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>53</v>
+        <v>97</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>100</v>
+        <v>39</v>
       </c>
       <c r="G16" s="1"/>
       <c r="H16" s="1" t="s">
-        <v>92</v>
+        <v>43</v>
       </c>
       <c r="J16" s="4" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="K16" s="4" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="L16" s="1"/>
     </row>
     <row r="17" spans="1:12">
       <c r="A17" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>30</v>
-      </c>
+        <v>101</v>
+      </c>
+      <c r="B17" s="1"/>
       <c r="C17" s="1" t="s">
-        <v>68</v>
+        <v>105</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="G17" s="1"/>
       <c r="H17" s="1" t="s">
-        <v>50</v>
+        <v>84</v>
       </c>
       <c r="J17" s="4" t="s">
         <v>104</v>
       </c>
       <c r="K17" s="4" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="L17" s="1"/>
     </row>
     <row r="18" spans="1:12">
       <c r="A18" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>118</v>
-      </c>
+        <v>54</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F18" s="1"/>
       <c r="G18" s="1"/>
       <c r="H18" s="1" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="J18" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="K18" s="4" t="s">
-        <v>108</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="K18" s="1"/>
       <c r="L18" s="1"/>
     </row>
     <row r="19" spans="1:12">
-      <c r="A19" s="1" t="s">
-        <v>109</v>
-      </c>
+      <c r="A19" s="1"/>
       <c r="B19" s="1"/>
-      <c r="C19" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>46</v>
-      </c>
+      <c r="F19" s="1"/>
       <c r="G19" s="1"/>
-      <c r="H19" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="J19" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="K19" s="4" t="s">
-        <v>111</v>
-      </c>
+      <c r="H19" s="1"/>
+      <c r="I19" s="2"/>
+      <c r="J19" s="1"/>
+      <c r="K19" s="1"/>
       <c r="L19" s="1"/>
     </row>
     <row r="20" spans="1:12">
       <c r="A20" s="1"/>
-      <c r="B20" s="1"/>
-      <c r="F20" s="1"/>
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
-      <c r="I20" s="2"/>
-      <c r="J20" s="1"/>
-      <c r="K20" s="1"/>
-      <c r="L20" s="1"/>
     </row>
     <row r="21" spans="1:12">
-      <c r="A21" s="1"/>
+      <c r="F21" s="1"/>
       <c r="G21" s="1"/>
       <c r="H21" s="1"/>
+      <c r="J21" s="3"/>
+      <c r="K21" s="3"/>
     </row>
     <row r="22" spans="1:12">
+      <c r="A22" s="1"/>
+      <c r="B22" s="1"/>
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
       <c r="H22" s="1"/>
-      <c r="J22" s="3"/>
-      <c r="K22" s="3"/>
+      <c r="J22" s="1"/>
+      <c r="K22" s="1"/>
+      <c r="L22" s="1"/>
     </row>
     <row r="23" spans="1:12">
       <c r="A23" s="1"/>
@@ -1584,20 +1596,20 @@
     </row>
     <row r="27" spans="1:12">
       <c r="A27" s="1"/>
-      <c r="B27" s="1"/>
       <c r="F27" s="1"/>
       <c r="G27" s="1"/>
       <c r="H27" s="1"/>
-      <c r="J27" s="1"/>
-      <c r="K27" s="1"/>
-      <c r="L27" s="1"/>
+      <c r="I27" s="2"/>
     </row>
     <row r="28" spans="1:12">
       <c r="A28" s="1"/>
+      <c r="B28" s="1"/>
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
-      <c r="I28" s="2"/>
+      <c r="J28" s="1"/>
+      <c r="K28" s="1"/>
+      <c r="L28" s="1"/>
     </row>
     <row r="29" spans="1:12">
       <c r="A29" s="1"/>
@@ -1667,7 +1679,6 @@
       <c r="H35" s="1"/>
       <c r="J35" s="1"/>
       <c r="K35" s="1"/>
-      <c r="L35" s="1"/>
     </row>
     <row r="36" spans="1:12">
       <c r="A36" s="1"/>
@@ -1675,15 +1686,6 @@
       <c r="F36" s="1"/>
       <c r="G36" s="1"/>
       <c r="H36" s="1"/>
-      <c r="J36" s="1"/>
-      <c r="K36" s="1"/>
-    </row>
-    <row r="37" spans="1:12">
-      <c r="A37" s="1"/>
-      <c r="B37" s="1"/>
-      <c r="F37" s="1"/>
-      <c r="G37" s="1"/>
-      <c r="H37" s="1"/>
     </row>
   </sheetData>
   <sortState ref="A2:L36">
@@ -1691,33 +1693,33 @@
     <sortCondition ref="C2:C36"/>
   </sortState>
   <hyperlinks>
-    <hyperlink ref="J3" r:id="rId1"/>
-    <hyperlink ref="J4" r:id="rId2" location="speakers"/>
-    <hyperlink ref="J5" r:id="rId3"/>
-    <hyperlink ref="K5" r:id="rId4"/>
-    <hyperlink ref="J6" r:id="rId5"/>
-    <hyperlink ref="J7" r:id="rId6"/>
-    <hyperlink ref="J8" r:id="rId7"/>
-    <hyperlink ref="J9" r:id="rId8"/>
-    <hyperlink ref="J10" r:id="rId9"/>
-    <hyperlink ref="K10" r:id="rId10"/>
-    <hyperlink ref="J11" r:id="rId11"/>
-    <hyperlink ref="K11" r:id="rId12"/>
-    <hyperlink ref="J12" r:id="rId13"/>
-    <hyperlink ref="K12" r:id="rId14"/>
-    <hyperlink ref="J13" r:id="rId15"/>
-    <hyperlink ref="J14" r:id="rId16"/>
-    <hyperlink ref="K14" r:id="rId17"/>
-    <hyperlink ref="J15" r:id="rId18"/>
-    <hyperlink ref="K15" r:id="rId19"/>
-    <hyperlink ref="K16" r:id="rId20"/>
-    <hyperlink ref="J16" r:id="rId21"/>
-    <hyperlink ref="J17" r:id="rId22"/>
-    <hyperlink ref="K17" r:id="rId23"/>
-    <hyperlink ref="J18" r:id="rId24"/>
-    <hyperlink ref="K18" r:id="rId25"/>
-    <hyperlink ref="K19" r:id="rId26"/>
-    <hyperlink ref="J19" r:id="rId27"/>
+    <hyperlink ref="J2" r:id="rId1"/>
+    <hyperlink ref="J10" r:id="rId2" location="speakers"/>
+    <hyperlink ref="J4" r:id="rId3"/>
+    <hyperlink ref="K4" r:id="rId4"/>
+    <hyperlink ref="J11" r:id="rId5"/>
+    <hyperlink ref="J12" r:id="rId6"/>
+    <hyperlink ref="J18" r:id="rId7"/>
+    <hyperlink ref="J13" r:id="rId8"/>
+    <hyperlink ref="J9" r:id="rId9"/>
+    <hyperlink ref="K9" r:id="rId10"/>
+    <hyperlink ref="J3" r:id="rId11"/>
+    <hyperlink ref="K3" r:id="rId12"/>
+    <hyperlink ref="J6" r:id="rId13"/>
+    <hyperlink ref="K6" r:id="rId14"/>
+    <hyperlink ref="J14" r:id="rId15"/>
+    <hyperlink ref="J5" r:id="rId16"/>
+    <hyperlink ref="K5" r:id="rId17"/>
+    <hyperlink ref="J7" r:id="rId18"/>
+    <hyperlink ref="K7" r:id="rId19"/>
+    <hyperlink ref="K15" r:id="rId20"/>
+    <hyperlink ref="J15" r:id="rId21"/>
+    <hyperlink ref="J16" r:id="rId22"/>
+    <hyperlink ref="K16" r:id="rId23"/>
+    <hyperlink ref="J8" r:id="rId24"/>
+    <hyperlink ref="K8" r:id="rId25"/>
+    <hyperlink ref="K17" r:id="rId26"/>
+    <hyperlink ref="J17" r:id="rId27"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
